--- a/t/valuereader.xlsx
+++ b/t/valuereader.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\DAMI\Excel-ValueReader-XLSX\t\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
     <sheet name="Empty" sheetId="2" r:id="rId2"/>
+    <sheet name="Entities" sheetId="3" r:id="rId3"/>
+    <sheet name="Tab_entities" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="32" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="186">
   <si>
     <t>Hello</t>
   </si>
@@ -55,6 +60,552 @@
   </si>
   <si>
     <t>after an empty row and col</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>greater than</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>less than</t>
+  </si>
+  <si>
+    <t>quot</t>
+  </si>
+  <si>
+    <t>|double quote</t>
+  </si>
+  <si>
+    <t>apos</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>single quote</t>
+  </si>
+  <si>
+    <t>AElig</t>
+  </si>
+  <si>
+    <t>Æ</t>
+  </si>
+  <si>
+    <t>Aacute</t>
+  </si>
+  <si>
+    <t>Á</t>
+  </si>
+  <si>
+    <t>Acirc</t>
+  </si>
+  <si>
+    <t>Â</t>
+  </si>
+  <si>
+    <t>Agrave</t>
+  </si>
+  <si>
+    <t>À</t>
+  </si>
+  <si>
+    <t>Aring</t>
+  </si>
+  <si>
+    <t>Å</t>
+  </si>
+  <si>
+    <t>Atilde</t>
+  </si>
+  <si>
+    <t>Ã</t>
+  </si>
+  <si>
+    <t>Auml</t>
+  </si>
+  <si>
+    <t>Ä</t>
+  </si>
+  <si>
+    <t>Ccedil</t>
+  </si>
+  <si>
+    <t>Ç</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>Ð</t>
+  </si>
+  <si>
+    <t>Eacute</t>
+  </si>
+  <si>
+    <t>É</t>
+  </si>
+  <si>
+    <t>Ecirc</t>
+  </si>
+  <si>
+    <t>Ê</t>
+  </si>
+  <si>
+    <t>Egrave</t>
+  </si>
+  <si>
+    <t>È</t>
+  </si>
+  <si>
+    <t>Euml</t>
+  </si>
+  <si>
+    <t>Ë</t>
+  </si>
+  <si>
+    <t>Iacute</t>
+  </si>
+  <si>
+    <t>Í</t>
+  </si>
+  <si>
+    <t>Icirc</t>
+  </si>
+  <si>
+    <t>Î</t>
+  </si>
+  <si>
+    <t>Igrave</t>
+  </si>
+  <si>
+    <t>Ì</t>
+  </si>
+  <si>
+    <t>Iuml</t>
+  </si>
+  <si>
+    <t>Ï</t>
+  </si>
+  <si>
+    <t>Ntilde</t>
+  </si>
+  <si>
+    <t>Ñ</t>
+  </si>
+  <si>
+    <t>Oacute</t>
+  </si>
+  <si>
+    <t>Ó</t>
+  </si>
+  <si>
+    <t>Ocirc</t>
+  </si>
+  <si>
+    <t>Ô</t>
+  </si>
+  <si>
+    <t>Ograve</t>
+  </si>
+  <si>
+    <t>Ò</t>
+  </si>
+  <si>
+    <t>Oslash</t>
+  </si>
+  <si>
+    <t>Ø</t>
+  </si>
+  <si>
+    <t>Otilde</t>
+  </si>
+  <si>
+    <t>Õ</t>
+  </si>
+  <si>
+    <t>Ouml</t>
+  </si>
+  <si>
+    <t>Ö</t>
+  </si>
+  <si>
+    <t>THORN</t>
+  </si>
+  <si>
+    <t>Þ</t>
+  </si>
+  <si>
+    <t>Uacute</t>
+  </si>
+  <si>
+    <t>Ú</t>
+  </si>
+  <si>
+    <t>Ucirc</t>
+  </si>
+  <si>
+    <t>Û</t>
+  </si>
+  <si>
+    <t>Ugrave</t>
+  </si>
+  <si>
+    <t>Ù</t>
+  </si>
+  <si>
+    <t>Uuml</t>
+  </si>
+  <si>
+    <t>Ü</t>
+  </si>
+  <si>
+    <t>Yacute</t>
+  </si>
+  <si>
+    <t>Ý</t>
+  </si>
+  <si>
+    <t>aacute</t>
+  </si>
+  <si>
+    <t>á</t>
+  </si>
+  <si>
+    <t>acirc</t>
+  </si>
+  <si>
+    <t>â</t>
+  </si>
+  <si>
+    <t>aelig</t>
+  </si>
+  <si>
+    <t>æ</t>
+  </si>
+  <si>
+    <t>agrave</t>
+  </si>
+  <si>
+    <t>à</t>
+  </si>
+  <si>
+    <t>aring</t>
+  </si>
+  <si>
+    <t>å</t>
+  </si>
+  <si>
+    <t>atilde</t>
+  </si>
+  <si>
+    <t>ã</t>
+  </si>
+  <si>
+    <t>auml</t>
+  </si>
+  <si>
+    <t>ä</t>
+  </si>
+  <si>
+    <t>ccedil</t>
+  </si>
+  <si>
+    <t>ç</t>
+  </si>
+  <si>
+    <t>eacute</t>
+  </si>
+  <si>
+    <t>é</t>
+  </si>
+  <si>
+    <t>ecirc</t>
+  </si>
+  <si>
+    <t>ê</t>
+  </si>
+  <si>
+    <t>egrave</t>
+  </si>
+  <si>
+    <t>è</t>
+  </si>
+  <si>
+    <t>eth</t>
+  </si>
+  <si>
+    <t>ð</t>
+  </si>
+  <si>
+    <t>euml</t>
+  </si>
+  <si>
+    <t>ë</t>
+  </si>
+  <si>
+    <t>iacute</t>
+  </si>
+  <si>
+    <t>í</t>
+  </si>
+  <si>
+    <t>icirc</t>
+  </si>
+  <si>
+    <t>î</t>
+  </si>
+  <si>
+    <t>igrave</t>
+  </si>
+  <si>
+    <t>ì</t>
+  </si>
+  <si>
+    <t>iuml</t>
+  </si>
+  <si>
+    <t>ï</t>
+  </si>
+  <si>
+    <t>ntilde</t>
+  </si>
+  <si>
+    <t>ñ</t>
+  </si>
+  <si>
+    <t>oacute</t>
+  </si>
+  <si>
+    <t>ó</t>
+  </si>
+  <si>
+    <t>ocirc</t>
+  </si>
+  <si>
+    <t>ô</t>
+  </si>
+  <si>
+    <t>ograve</t>
+  </si>
+  <si>
+    <t>ò</t>
+  </si>
+  <si>
+    <t>oslash</t>
+  </si>
+  <si>
+    <t>ø</t>
+  </si>
+  <si>
+    <t>otilde</t>
+  </si>
+  <si>
+    <t>õ</t>
+  </si>
+  <si>
+    <t>ouml</t>
+  </si>
+  <si>
+    <t>ö</t>
+  </si>
+  <si>
+    <t>szlig</t>
+  </si>
+  <si>
+    <t>ß</t>
+  </si>
+  <si>
+    <t>thorn</t>
+  </si>
+  <si>
+    <t>þ</t>
+  </si>
+  <si>
+    <t>uacute</t>
+  </si>
+  <si>
+    <t>ú</t>
+  </si>
+  <si>
+    <t>ucirc</t>
+  </si>
+  <si>
+    <t>û</t>
+  </si>
+  <si>
+    <t>ugrave</t>
+  </si>
+  <si>
+    <t>ù</t>
+  </si>
+  <si>
+    <t>uuml</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>yacute</t>
+  </si>
+  <si>
+    <t>ý</t>
+  </si>
+  <si>
+    <t>yuml</t>
+  </si>
+  <si>
+    <t>ÿ</t>
+  </si>
+  <si>
+    <t>Étiquettes de lignes</t>
+  </si>
+  <si>
+    <t>(vide)</t>
+  </si>
+  <si>
+    <t>Total général</t>
+  </si>
+  <si>
+    <t>Nombre de Name</t>
+  </si>
+  <si>
+    <t>Étiquettes de colonnes</t>
+  </si>
+  <si>
+    <t>Cap/small</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>AE diphthong (ligature)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Eth</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ae diphthong (ligature)</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>sharp s</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
+    <t>Variant</t>
+  </si>
+  <si>
+    <t>acute accent</t>
+  </si>
+  <si>
+    <t>grave accent</t>
+  </si>
+  <si>
+    <t>circumflex accent</t>
+  </si>
+  <si>
+    <t>tilde</t>
+  </si>
+  <si>
+    <t>dieresis or umlaut mark</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>Icelandic</t>
+  </si>
+  <si>
+    <t>cedilla</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>German (sz ligature)</t>
+  </si>
+  <si>
+    <t>ampersand</t>
   </si>
 </sst>
 </file>
@@ -98,8 +649,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,6 +674,911 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dami Laurent (PJ)" refreshedDate="43983.253371296298" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="67">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Entities"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Num" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="34" maxValue="255"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Char" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Cap/small" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <m/>
+        <s v="capital"/>
+        <s v="small"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Letter" numFmtId="0">
+      <sharedItems containsBlank="1" count="18">
+        <s v="ampersand"/>
+        <s v="greater than"/>
+        <s v="less than"/>
+        <m/>
+        <s v="single quote"/>
+        <s v="AE diphthong (ligature)"/>
+        <s v="A"/>
+        <s v="C"/>
+        <s v="Eth"/>
+        <s v="E"/>
+        <s v="I"/>
+        <s v="N"/>
+        <s v="O"/>
+        <s v="THORN"/>
+        <s v="U"/>
+        <s v="Y"/>
+        <s v="sharp s"/>
+        <s v="ampersand " u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Variant" numFmtId="0">
+      <sharedItems containsBlank="1" count="21">
+        <m/>
+        <s v="acute accent"/>
+        <s v="circumflex accent"/>
+        <s v="grave accent"/>
+        <s v="ring"/>
+        <s v="tilde"/>
+        <s v="dieresis or umlaut mark"/>
+        <s v="cedilla"/>
+        <s v="Icelandic"/>
+        <s v="slash"/>
+        <s v="German (sz ligature)"/>
+        <s v=" circumflex accent" u="1"/>
+        <s v=" grave accent" u="1"/>
+        <s v=" cedilla" u="1"/>
+        <s v=" German (sz ligature)" u="1"/>
+        <s v=" tilde" u="1"/>
+        <s v=" ring" u="1"/>
+        <s v=" slash" u="1"/>
+        <s v=" Icelandic" u="1"/>
+        <s v=" acute accent" u="1"/>
+        <s v=" dieresis or umlaut mark" u="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="67">
+  <r>
+    <n v="38"/>
+    <s v="amp"/>
+    <s v="&amp;"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <s v="gt"/>
+    <s v="&gt;"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <s v="lt"/>
+    <s v="&lt;"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="quot"/>
+    <s v="|double quote"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="apos"/>
+    <s v="'"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="198"/>
+    <s v="AElig"/>
+    <s v="Æ"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="193"/>
+    <s v="Aacute"/>
+    <s v="Á"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="194"/>
+    <s v="Acirc"/>
+    <s v="Â"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="192"/>
+    <s v="Agrave"/>
+    <s v="À"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="197"/>
+    <s v="Aring"/>
+    <s v="Å"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="195"/>
+    <s v="Atilde"/>
+    <s v="Ã"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="196"/>
+    <s v="Auml"/>
+    <s v="Ä"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="199"/>
+    <s v="Ccedil"/>
+    <s v="Ç"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="208"/>
+    <s v="ETH"/>
+    <s v="Ð"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="201"/>
+    <s v="Eacute"/>
+    <s v="É"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="202"/>
+    <s v="Ecirc"/>
+    <s v="Ê"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="200"/>
+    <s v="Egrave"/>
+    <s v="È"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="203"/>
+    <s v="Euml"/>
+    <s v="Ë"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="205"/>
+    <s v="Iacute"/>
+    <s v="Í"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="206"/>
+    <s v="Icirc"/>
+    <s v="Î"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="204"/>
+    <s v="Igrave"/>
+    <s v="Ì"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="207"/>
+    <s v="Iuml"/>
+    <s v="Ï"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="209"/>
+    <s v="Ntilde"/>
+    <s v="Ñ"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="211"/>
+    <s v="Oacute"/>
+    <s v="Ó"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="212"/>
+    <s v="Ocirc"/>
+    <s v="Ô"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="210"/>
+    <s v="Ograve"/>
+    <s v="Ò"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="216"/>
+    <s v="Oslash"/>
+    <s v="Ø"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="213"/>
+    <s v="Otilde"/>
+    <s v="Õ"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="214"/>
+    <s v="Ouml"/>
+    <s v="Ö"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="222"/>
+    <s v="THORN"/>
+    <s v="Þ"/>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="218"/>
+    <s v="Uacute"/>
+    <s v="Ú"/>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="219"/>
+    <s v="Ucirc"/>
+    <s v="Û"/>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="217"/>
+    <s v="Ugrave"/>
+    <s v="Ù"/>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="220"/>
+    <s v="Uuml"/>
+    <s v="Ü"/>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="221"/>
+    <s v="Yacute"/>
+    <s v="Ý"/>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="225"/>
+    <s v="aacute"/>
+    <s v="á"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="226"/>
+    <s v="acirc"/>
+    <s v="â"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="230"/>
+    <s v="aelig"/>
+    <s v="æ"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="224"/>
+    <s v="agrave"/>
+    <s v="à"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="229"/>
+    <s v="aring"/>
+    <s v="å"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="227"/>
+    <s v="atilde"/>
+    <s v="ã"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="228"/>
+    <s v="auml"/>
+    <s v="ä"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="231"/>
+    <s v="ccedil"/>
+    <s v="ç"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="233"/>
+    <s v="eacute"/>
+    <s v="é"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="234"/>
+    <s v="ecirc"/>
+    <s v="ê"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="232"/>
+    <s v="egrave"/>
+    <s v="è"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="240"/>
+    <s v="eth"/>
+    <s v="ð"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="235"/>
+    <s v="euml"/>
+    <s v="ë"/>
+    <x v="2"/>
+    <x v="9"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="237"/>
+    <s v="iacute"/>
+    <s v="í"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="238"/>
+    <s v="icirc"/>
+    <s v="î"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="236"/>
+    <s v="igrave"/>
+    <s v="ì"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="239"/>
+    <s v="iuml"/>
+    <s v="ï"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="241"/>
+    <s v="ntilde"/>
+    <s v="ñ"/>
+    <x v="2"/>
+    <x v="11"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="243"/>
+    <s v="oacute"/>
+    <s v="ó"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="244"/>
+    <s v="ocirc"/>
+    <s v="ô"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="242"/>
+    <s v="ograve"/>
+    <s v="ò"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="248"/>
+    <s v="oslash"/>
+    <s v="ø"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="245"/>
+    <s v="otilde"/>
+    <s v="õ"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="246"/>
+    <s v="ouml"/>
+    <s v="ö"/>
+    <x v="2"/>
+    <x v="12"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="223"/>
+    <s v="szlig"/>
+    <s v="ß"/>
+    <x v="2"/>
+    <x v="16"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="254"/>
+    <s v="thorn"/>
+    <s v="þ"/>
+    <x v="2"/>
+    <x v="13"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="250"/>
+    <s v="uacute"/>
+    <s v="ú"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="251"/>
+    <s v="ucirc"/>
+    <s v="û"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="249"/>
+    <s v="ugrave"/>
+    <s v="ù"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="252"/>
+    <s v="uuml"/>
+    <s v="ü"/>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="253"/>
+    <s v="yacute"/>
+    <s v="ý"/>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="255"/>
+    <s v="yuml"/>
+    <s v="ÿ"/>
+    <x v="2"/>
+    <x v="15"/>
+    <x v="6"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="19">
+        <item x="6"/>
+        <item x="5"/>
+        <item m="1" x="17"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="22">
+        <item m="1" x="19"/>
+        <item m="1" x="13"/>
+        <item m="1" x="11"/>
+        <item m="1" x="20"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
+        <item m="1" x="18"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="15"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="55">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Nombre de Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Entities" displayName="Entities" ref="A1:F68" totalsRowShown="0">
+  <autoFilter ref="A1:F68">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="cedilla"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Num"/>
+    <tableColumn id="2" name="Name"/>
+    <tableColumn id="3" name="Char"/>
+    <tableColumn id="6" name="Cap/small"/>
+    <tableColumn id="4" name="Letter"/>
+    <tableColumn id="5" name="Variant"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,11 +1870,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -431,15 +1898,25 @@
       <c r="A2">
         <v>123</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <f>C3&amp;C2</f>
+        <v>&amp;&lt;&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -466,4 +1943,2205 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>194</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>192</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>195</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>196</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>199</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>208</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>203</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>205</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>206</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>204</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>207</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>209</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>211</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>212</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>210</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>216</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>213</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>214</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>222</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>218</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>219</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>217</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>220</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>221</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>225</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>226</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>230</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>224</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>229</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>227</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>228</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E43" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>231</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>233</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>240</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>235</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" t="s">
+        <v>166</v>
+      </c>
+      <c r="F49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>237</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>238</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>236</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>239</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>241</v>
+      </c>
+      <c r="B54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" t="s">
+        <v>168</v>
+      </c>
+      <c r="F54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>243</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>244</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>242</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>248</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>245</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" t="s">
+        <v>169</v>
+      </c>
+      <c r="F59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>246</v>
+      </c>
+      <c r="B60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" t="s">
+        <v>169</v>
+      </c>
+      <c r="F60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>223</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" t="s">
+        <v>170</v>
+      </c>
+      <c r="F61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>254</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>250</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>251</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>249</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>252</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" t="s">
+        <v>171</v>
+      </c>
+      <c r="F66" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>253</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" t="s">
+        <v>172</v>
+      </c>
+      <c r="F67" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>255</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" customWidth="1"/>
+    <col min="12" max="12" width="3" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="3">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="3">
+        <v>4</v>
+      </c>
+      <c r="C47" s="3">
+        <v>4</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="3">
+        <v>30</v>
+      </c>
+      <c r="C59" s="3">
+        <v>32</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/t/valuereader.xlsx
+++ b/t/valuereader.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="32" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="187">
   <si>
     <t>Hello</t>
   </si>
@@ -606,6 +606,11 @@
   </si>
   <si>
     <t>ampersand</t>
+  </si>
+  <si>
+    <t>cell
+with
+embedded newlines</t>
   </si>
 </sst>
 </file>
@@ -649,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -658,6 +663,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,7 +1304,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1868,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,6 +1934,11 @@
       <c r="F6" t="str">
         <f>A1&amp;" "&amp;B6</f>
         <v>Hello after an empty row and col</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>

--- a/t/valuereader.xlsx
+++ b/t/valuereader.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
     <sheet name="Empty" sheetId="2" r:id="rId2"/>
     <sheet name="Entities" sheetId="3" r:id="rId3"/>
     <sheet name="Tab_entities" sheetId="5" r:id="rId4"/>
+    <sheet name="Dates" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="189">
   <si>
     <t>Hello</t>
   </si>
@@ -612,12 +613,33 @@
 with
 embedded newlines</t>
   </si>
+  <si>
+    <t>01.02.1789</t>
+  </si>
+  <si>
+    <t>31.12.1899</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="13">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy\ hh:mm:ss.000"/>
+    <numFmt numFmtId="168" formatCode="[h]:mm:ss.000"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="170" formatCode="dd/\ m/\ yy;@"/>
+    <numFmt numFmtId="171" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="173" formatCode="[$-100C]dddd\,\ d/\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="174" formatCode="[$-100C]d/\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="175" formatCode="[$-100C]d\ mmm\ yy;@"/>
+    <numFmt numFmtId="176" formatCode="mmm/yyyy"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -627,6 +649,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -651,10 +680,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -667,8 +697,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="DateStyleddmmyyyy" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1878,7 +1927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -4157,4 +4206,126 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6">
+        <v>44022</v>
+      </c>
+      <c r="B1" s="7">
+        <v>44022</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="8">
+        <v>44022.122916666667</v>
+      </c>
+      <c r="E1" s="9">
+        <v>0.12359953703703704</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>44022</v>
+      </c>
+      <c r="B2" s="7">
+        <v>44022</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="11">
+        <v>44022.123599537037</v>
+      </c>
+      <c r="E2" s="12">
+        <v>5.7638888888888885E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>44022</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15">
+        <v>5.9938888888888889E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>44022</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>44022</v>
+      </c>
+      <c r="C5" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>44022</v>
+      </c>
+      <c r="C6" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>44022</v>
+      </c>
+      <c r="C7" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>44022</v>
+      </c>
+      <c r="C8" s="6">
+        <v>929273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>44022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/t/valuereader.xlsx
+++ b/t/valuereader.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="187">
   <si>
     <t>Hello</t>
   </si>
@@ -612,12 +612,6 @@
     <t>cell
 with
 embedded newlines</t>
-  </si>
-  <si>
-    <t>01.02.1789</t>
-  </si>
-  <si>
-    <t>31.12.1899</t>
   </si>
 </sst>
 </file>
@@ -4213,7 +4207,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4230,8 +4224,8 @@
       <c r="B1" s="7">
         <v>44022</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>187</v>
+      <c r="C1" s="6">
+        <v>32540</v>
       </c>
       <c r="D1" s="8">
         <v>44022.122916666667</v>
@@ -4247,8 +4241,8 @@
       <c r="B2" s="7">
         <v>44022</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>188</v>
+      <c r="C2" s="6">
+        <v>36525</v>
       </c>
       <c r="D2" s="11">
         <v>44022.123599537037</v>

--- a/t/valuereader.xlsx
+++ b/t/valuereader.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -657,12 +657,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -678,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -709,6 +715,7 @@
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="DateStyleddmmyyyy" xfId="1"/>
@@ -1921,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,9 +1938,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
       <c r="D1">
         <v>22</v>
       </c>
@@ -1946,26 +1955,29 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="24">
         <v>123</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="str">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24" t="str">
         <f>C3&amp;C2</f>
         <v>&amp;&lt;&gt;</v>
       </c>
@@ -1986,6 +1998,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4206,7 +4219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/t/valuereader.xlsx
+++ b/t/valuereader.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1354,7 +1354,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1620,13 +1620,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Entities" displayName="Entities" ref="A1:F68" totalsRowShown="0">
-  <autoFilter ref="A1:F68">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="cedilla"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F68"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Num"/>
     <tableColumn id="2" name="Name"/>
@@ -1928,7 +1922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -2018,8 +2012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,7 +2038,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>38</v>
       </c>
@@ -2058,7 +2052,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>62</v>
       </c>
@@ -2072,7 +2066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>60</v>
       </c>
@@ -2086,7 +2080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>34</v>
       </c>
@@ -2097,7 +2091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>39</v>
       </c>
@@ -2111,7 +2105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>198</v>
       </c>
@@ -2128,7 +2122,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>193</v>
       </c>
@@ -2148,7 +2142,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>194</v>
       </c>
@@ -2168,7 +2162,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>192</v>
       </c>
@@ -2188,7 +2182,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>197</v>
       </c>
@@ -2208,7 +2202,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>195</v>
       </c>
@@ -2228,7 +2222,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>196</v>
       </c>
@@ -2268,7 +2262,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>208</v>
       </c>
@@ -2288,7 +2282,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>201</v>
       </c>
@@ -2308,7 +2302,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>202</v>
       </c>
@@ -2328,7 +2322,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>200</v>
       </c>
@@ -2348,7 +2342,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>203</v>
       </c>
@@ -2368,7 +2362,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>205</v>
       </c>
@@ -2388,7 +2382,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>206</v>
       </c>
@@ -2408,7 +2402,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>204</v>
       </c>
@@ -2428,7 +2422,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>207</v>
       </c>
@@ -2448,7 +2442,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>209</v>
       </c>
@@ -2468,7 +2462,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>211</v>
       </c>
@@ -2488,7 +2482,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>212</v>
       </c>
@@ -2508,7 +2502,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>210</v>
       </c>
@@ -2528,7 +2522,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>216</v>
       </c>
@@ -2548,7 +2542,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>213</v>
       </c>
@@ -2568,7 +2562,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>214</v>
       </c>
@@ -2588,7 +2582,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>222</v>
       </c>
@@ -2608,7 +2602,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>218</v>
       </c>
@@ -2628,7 +2622,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>219</v>
       </c>
@@ -2648,7 +2642,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>217</v>
       </c>
@@ -2668,7 +2662,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>220</v>
       </c>
@@ -2688,7 +2682,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>221</v>
       </c>
@@ -2708,7 +2702,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>225</v>
       </c>
@@ -2728,7 +2722,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>226</v>
       </c>
@@ -2748,7 +2742,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>230</v>
       </c>
@@ -2765,7 +2759,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>224</v>
       </c>
@@ -2785,7 +2779,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>229</v>
       </c>
@@ -2805,7 +2799,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>227</v>
       </c>
@@ -2825,7 +2819,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>228</v>
       </c>
@@ -2865,7 +2859,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>233</v>
       </c>
@@ -2885,7 +2879,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>234</v>
       </c>
@@ -2905,7 +2899,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>232</v>
       </c>
@@ -2925,7 +2919,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>240</v>
       </c>
@@ -2945,7 +2939,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>235</v>
       </c>
@@ -2965,7 +2959,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>237</v>
       </c>
@@ -2985,7 +2979,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>238</v>
       </c>
@@ -3005,7 +2999,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>236</v>
       </c>
@@ -3025,7 +3019,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>239</v>
       </c>
@@ -3045,7 +3039,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>241</v>
       </c>
@@ -3065,7 +3059,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>243</v>
       </c>
@@ -3085,7 +3079,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>244</v>
       </c>
@@ -3105,7 +3099,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>242</v>
       </c>
@@ -3125,7 +3119,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>248</v>
       </c>
@@ -3145,7 +3139,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>245</v>
       </c>
@@ -3165,7 +3159,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>246</v>
       </c>
@@ -3185,7 +3179,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>223</v>
       </c>
@@ -3205,7 +3199,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>254</v>
       </c>
@@ -3225,7 +3219,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>250</v>
       </c>
@@ -3245,7 +3239,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>251</v>
       </c>
@@ -3265,7 +3259,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>249</v>
       </c>
@@ -3285,7 +3279,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>252</v>
       </c>
@@ -3305,7 +3299,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>253</v>
       </c>
@@ -3325,7 +3319,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>255</v>
       </c>

--- a/t/valuereader.xlsx
+++ b/t/valuereader.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -17,16 +17,17 @@
     <sheet name="Entities" sheetId="3" r:id="rId3"/>
     <sheet name="Tab_entities" sheetId="5" r:id="rId4"/>
     <sheet name="Dates" sheetId="6" r:id="rId5"/>
+    <sheet name="Tables" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="198">
   <si>
     <t>Hello</t>
   </si>
@@ -612,6 +613,39 @@
     <t>cell
 with
 embedded newlines</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>badam</t>
+  </si>
+  <si>
+    <t>bum</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>gg</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1388,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1628,6 +1662,39 @@
     <tableColumn id="6" name="Cap/small"/>
     <tableColumn id="4" name="Letter"/>
     <tableColumn id="5" name="Variant"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tab_foobar" displayName="tab_foobar" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="foo"/>
+    <tableColumn id="2" name="bar"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tab_in_middle_of_sheet" displayName="tab_in_middle_of_sheet" ref="E3:F5" totalsRowShown="0">
+  <autoFilter ref="E3:F5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="badam"/>
+    <tableColumn id="2" name="bum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tab_without_headers" displayName="tab_without_headers" ref="I2:K4" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="col1"/>
+    <tableColumn id="2" name="col2"/>
+    <tableColumn id="3" name="col3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2012,7 +2079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -4329,4 +4396,91 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>99</v>
+      </c>
+      <c r="F4">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>77</v>
+      </c>
+      <c r="F5">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/t/valuereader.xlsx
+++ b/t/valuereader.xlsx
@@ -21,13 +21,13 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="202">
   <si>
     <t>Hello</t>
   </si>
@@ -646,6 +646,18 @@
   </si>
   <si>
     <t>gg</t>
+  </si>
+  <si>
+    <t>col&lt;</t>
+  </si>
+  <si>
+    <t>col&amp;</t>
+  </si>
+  <si>
+    <t>col&gt;</t>
+  </si>
+  <si>
+    <t>bim</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1400,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1695,6 +1707,18 @@
     <tableColumn id="1" name="col1"/>
     <tableColumn id="2" name="col2"/>
     <tableColumn id="3" name="col3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Cols_with_entities" displayName="Cols_with_entities" ref="N2:P3" totalsRowShown="0">
+  <autoFilter ref="N2:P3"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="col&lt;"/>
+    <tableColumn id="2" name="col&amp;"/>
+    <tableColumn id="3" name="col&gt;"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4400,15 +4424,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K1"/>
+      <selection activeCell="N2" sqref="N2:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -4416,7 +4440,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -4432,8 +4456,17 @@
       <c r="K2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>198</v>
+      </c>
+      <c r="O2" t="s">
+        <v>199</v>
+      </c>
+      <c r="P2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>33</v>
       </c>
@@ -4449,8 +4482,17 @@
       <c r="I3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>99</v>
       </c>
@@ -4467,7 +4509,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>77</v>
       </c>
@@ -4477,10 +4519,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/t/valuereader.xlsx
+++ b/t/valuereader.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\DAMI\Excel-ValueReader-XLSX\t\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F5D02D-8160-4731-A45B-1FB9D5529021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="16170" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -18,16 +19,30 @@
     <sheet name="Tab_entities" sheetId="5" r:id="rId4"/>
     <sheet name="Dates" sheetId="6" r:id="rId5"/>
     <sheet name="Tables" sheetId="7" r:id="rId6"/>
+    <sheet name="RemoteCells" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="7" r:id="rId8"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="206">
   <si>
     <t>Hello</t>
   </si>
@@ -659,11 +674,23 @@
   <si>
     <t>bim</t>
   </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>aaf1</t>
+  </si>
+  <si>
+    <t>a2556</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="13">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -764,7 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="DateStyleddmmyyyy" xfId="1"/>
+    <cellStyle name="DateStyleddmmyyyy" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -781,7 +808,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Dami Laurent (PJ)" refreshedDate="43983.253371296298" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="67">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dami Laurent (PJ)" refreshedDate="43983.253371296298" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="67" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Entities"/>
   </cacheSource>
@@ -1400,7 +1427,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tableau croisé dynamique2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1660,74 +1687,77 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Entities" displayName="Entities" ref="A1:F68" totalsRowShown="0">
-  <autoFilter ref="A1:F68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Entities" displayName="Entities" ref="A1:F68" totalsRowShown="0">
+  <autoFilter ref="A1:F68" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Num"/>
-    <tableColumn id="2" name="Name"/>
-    <tableColumn id="3" name="Char"/>
-    <tableColumn id="6" name="Cap/small"/>
-    <tableColumn id="4" name="Letter"/>
-    <tableColumn id="5" name="Variant"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Num"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Char"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Cap/small"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Letter"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Variant"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tab_foobar" displayName="tab_foobar" ref="A1:B3" totalsRowShown="0">
-  <autoFilter ref="A1:B3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tab_foobar" displayName="tab_foobar" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="foo"/>
-    <tableColumn id="2" name="bar"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="foo"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="bar"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tab_in_middle_of_sheet" displayName="tab_in_middle_of_sheet" ref="E3:F5" totalsRowShown="0">
-  <autoFilter ref="E3:F5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tab_in_middle_of_sheet" displayName="tab_in_middle_of_sheet" ref="E3:F5" totalsRowShown="0">
+  <autoFilter ref="E3:F5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="badam"/>
-    <tableColumn id="2" name="bum"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="badam"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="bum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tab_without_headers" displayName="tab_without_headers" ref="I2:K4" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tab_without_headers" displayName="tab_without_headers" ref="I2:K4" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="col1"/>
-    <tableColumn id="2" name="col2"/>
-    <tableColumn id="3" name="col3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="col1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="col2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="col3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Cols_with_entities" displayName="Cols_with_entities" ref="N2:P3" totalsRowShown="0">
-  <autoFilter ref="N2:P3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Cols_with_entities" displayName="Cols_with_entities" ref="N2:P3" totalsRowShown="0">
+  <autoFilter ref="N2:P3" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="col&lt;"/>
-    <tableColumn id="2" name="col&amp;"/>
-    <tableColumn id="3" name="col&gt;"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="col&lt;"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="col&amp;"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="col&gt;"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1765,9 +1795,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1802,7 +1832,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1837,7 +1867,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2010,7 +2040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2088,7 +2118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2100,7 +2130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3439,7 +3469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4301,7 +4331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4423,12 +4453,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:P3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4526,4 +4554,33 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582E682E-50E0-4A19-AE29-AB7156837079}">
+  <dimension ref="A1:AAF2556"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:708" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AAF1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2556" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/t/valuereader.xlsx
+++ b/t/valuereader.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\DAMI\Excel-ValueReader-XLSX\t\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F5D02D-8160-4731-A45B-1FB9D5529021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A04D60-D1BF-43D6-A2F9-0BFCEA1BF38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="28770" windowHeight="16170" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="208">
   <si>
     <t>Hello</t>
   </si>
@@ -685,6 +685,12 @@
   </si>
   <si>
     <t>a2556</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1433,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tableau croisé dynamique2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tableau croisé dynamique2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E59" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1749,6 +1755,18 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="col&lt;"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="col&amp;"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="col&gt;"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5928E664-555F-4F8D-B13C-1C92B6BD1944}" name="HasTotals" displayName="HasTotals" ref="J10:L14" totalsRowCount="1">
+  <autoFilter ref="J10:L13" xr:uid="{5928E664-555F-4F8D-B13C-1C92B6BD1944}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{683EE319-B8C6-4FA4-991D-8789F018628E}" name="x" totalsRowFunction="max"/>
+    <tableColumn id="2" xr3:uid="{14B06313-D92A-4BFB-88CC-7E47FF24B1EF}" name="y" totalsRowFunction="count"/>
+    <tableColumn id="3" xr3:uid="{8C864C05-7D34-42F0-9934-9B2FE0A71400}" name="z" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4454,9 +4472,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4545,13 +4565,72 @@
         <v>66</v>
       </c>
     </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" t="s">
+        <v>172</v>
+      </c>
+      <c r="L10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>22</v>
+      </c>
+      <c r="L11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>55</v>
+      </c>
+      <c r="L12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>77</v>
+      </c>
+      <c r="K13">
+        <v>88</v>
+      </c>
+      <c r="L13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f>SUBTOTAL(104,HasTotals[x])</f>
+        <v>77</v>
+      </c>
+      <c r="K14">
+        <f>SUBTOTAL(103,HasTotals[y])</f>
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <f>SUBTOTAL(109,HasTotals[z])</f>
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
